--- a/data/forecasts/forecast_agg_2025_10.xlsx
+++ b/data/forecasts/forecast_agg_2025_10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.425591113809816</v>
+        <v>0.9966661317296887</v>
       </c>
       <c r="F2" t="n">
-        <v>1.434633864831881</v>
+        <v>1.002988143415965</v>
       </c>
       <c r="G2" t="n">
         <v>1.006343158942608</v>
@@ -519,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.475414995388021</v>
+        <v>1.000449305490301</v>
       </c>
       <c r="F3" t="n">
-        <v>1.484773787210075</v>
+        <v>1.006795314449048</v>
       </c>
       <c r="G3" t="n">
         <v>1.006343158942608</v>
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>3.477022224780556</v>
+        <v>5.947725333330141</v>
       </c>
       <c r="F4" t="n">
-        <v>3.570426734027516</v>
+        <v>6.107501236381918</v>
       </c>
       <c r="G4" t="n">
         <v>1.026863362730692</v>
@@ -573,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2.585872109507757</v>
+        <v>2.00799472345468</v>
       </c>
       <c r="F5" t="n">
-        <v>2.575187944835065</v>
+        <v>1.999698200897201</v>
       </c>
       <c r="G5" t="n">
         <v>0.9958682548013845</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00776744932020919</v>
+        <v>0.00364104559549931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007735356198774927</v>
+        <v>0.003626001722842166</v>
       </c>
       <c r="G6" t="n">
         <v>0.9958682548013845</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008186502882053501</v>
+        <v>-0.001098214563236043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008152678338077127</v>
+        <v>-0.001093677020487342</v>
       </c>
       <c r="G7" t="n">
         <v>0.9958682548013845</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008573302291261669</v>
+        <v>0.002270171325612846</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008537879590683469</v>
+        <v>0.00226079155613821</v>
       </c>
       <c r="G8" t="n">
         <v>0.9958682548013845</v>
@@ -681,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1.819092431146285</v>
+        <v>4.02488025300832</v>
       </c>
       <c r="F9" t="n">
-        <v>1.811576404728058</v>
+        <v>4.00825047334795</v>
       </c>
       <c r="G9" t="n">
         <v>0.9958682548013845</v>
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.499039089699784</v>
+        <v>1.003508379927882</v>
       </c>
       <c r="F10" t="n">
-        <v>1.49284544213838</v>
+        <v>0.9993621389973439</v>
       </c>
       <c r="G10" t="n">
         <v>0.9958682548013845</v>
@@ -735,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.255317995504402</v>
+        <v>3.948094397822487</v>
       </c>
       <c r="F11" t="n">
-        <v>1.250131341403741</v>
+        <v>3.931781877750603</v>
       </c>
       <c r="G11" t="n">
         <v>0.9958682548013845</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.406160099876313</v>
+        <v>1.00141345635458</v>
       </c>
       <c r="F12" t="n">
-        <v>1.400350204635165</v>
+        <v>0.997275871114457</v>
       </c>
       <c r="G12" t="n">
         <v>0.9958682548013845</v>
@@ -789,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.000439606483868</v>
+        <v>1.925195696120142</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000014759000504</v>
+        <v>1.924378140976203</v>
       </c>
       <c r="G13" t="n">
         <v>0.9995753392002769</v>
@@ -816,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4.344726324988621</v>
+        <v>5.177431274688318</v>
       </c>
       <c r="F14" t="n">
-        <v>4.342881290032873</v>
+        <v>5.175232622582698</v>
       </c>
       <c r="G14" t="n">
         <v>0.9995753392002769</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0001862487758550816</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0001861696833009795</v>
+        <v>0.001107704768028719</v>
       </c>
       <c r="G15" t="n">
         <v>0.9995753392002769</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.19644824893097</v>
+        <v>1.037252616851314</v>
       </c>
       <c r="F16" t="n">
-        <v>1.195940164260751</v>
+        <v>1.036812136325526</v>
       </c>
       <c r="G16" t="n">
         <v>0.9995753392002769</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02340957086413768</v>
+        <v>0.001887004375051999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02339962973705334</v>
+        <v>0.001886203038265009</v>
       </c>
       <c r="G17" t="n">
         <v>0.9995753392002769</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008594854399271382</v>
+        <v>0.001046414454328932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008591204501528683</v>
+        <v>0.001045970083129915</v>
       </c>
       <c r="G18" t="n">
         <v>0.9995753392002769</v>
@@ -951,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1.458329330508039</v>
+        <v>1.004056628430654</v>
       </c>
       <c r="F19" t="n">
-        <v>1.457710035208286</v>
+        <v>1.003630244939857</v>
       </c>
       <c r="G19" t="n">
         <v>0.9995753392002769</v>
@@ -978,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>3.537336269594923</v>
+        <v>8.904282585045838</v>
       </c>
       <c r="F20" t="n">
-        <v>3.535834101545786</v>
+        <v>8.900501285282312</v>
       </c>
       <c r="G20" t="n">
         <v>0.9995753392002769</v>
@@ -1005,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>3.457055295230174</v>
+        <v>6.0418080378504</v>
       </c>
       <c r="F21" t="n">
-        <v>3.455587219363814</v>
+        <v>6.039242318817274</v>
       </c>
       <c r="G21" t="n">
         <v>0.9995753392002769</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007814504377824027</v>
+        <v>0.001046414454328932</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007811185864145501</v>
+        <v>0.001045970083129915</v>
       </c>
       <c r="G22" t="n">
         <v>0.9995753392002769</v>
@@ -1059,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>3.048409706847947</v>
+        <v>2.081834821470629</v>
       </c>
       <c r="F23" t="n">
-        <v>3.047115166743952</v>
+        <v>2.080950747830451</v>
       </c>
       <c r="G23" t="n">
         <v>0.9995753392002769</v>
@@ -1086,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8737334912279798</v>
+        <v>1.051421960337893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8733624508648501</v>
+        <v>1.05097546264737</v>
       </c>
       <c r="G24" t="n">
         <v>0.9995753392002769</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01041742917007947</v>
+        <v>0.002276038351589874</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01041300529627704</v>
+        <v>0.002275071807323287</v>
       </c>
       <c r="G25" t="n">
         <v>0.9995753392002769</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1.459803541279437</v>
+        <v>1.004056628430654</v>
       </c>
       <c r="F26" t="n">
-        <v>1.459183619940159</v>
+        <v>1.003630244939857</v>
       </c>
       <c r="G26" t="n">
         <v>0.9995753392002769</v>
@@ -1167,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1.533962276353475</v>
+        <v>3.045824417959044</v>
       </c>
       <c r="F27" t="n">
-        <v>1.533310862706454</v>
+        <v>3.044530975725898</v>
       </c>
       <c r="G27" t="n">
         <v>0.9995753392002769</v>
@@ -1194,10 +1194,10 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>17.41031120810394</v>
+        <v>12.96159402600864</v>
       </c>
       <c r="F28" t="n">
-        <v>17.40291773142289</v>
+        <v>12.95608974512387</v>
       </c>
       <c r="G28" t="n">
         <v>0.9995753392002769</v>
@@ -1221,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>1.057087221472657</v>
+        <v>3.982799261908744</v>
       </c>
       <c r="F29" t="n">
-        <v>1.056638317967809</v>
+        <v>3.981107923189045</v>
       </c>
       <c r="G29" t="n">
         <v>0.9995753392002769</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0002551017917863883</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0002549934600554775</v>
+        <v>0.001107704768028719</v>
       </c>
       <c r="G30" t="n">
         <v>0.9995753392002769</v>
@@ -1275,10 +1275,10 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>3.08352035335978</v>
+        <v>14.01068198054731</v>
       </c>
       <c r="F31" t="n">
-        <v>3.082210903140559</v>
+        <v>14.00473219313279</v>
       </c>
       <c r="G31" t="n">
         <v>0.9995753392002769</v>
@@ -1302,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1.078434187480157</v>
+        <v>1.827120996908164</v>
       </c>
       <c r="F32" t="n">
-        <v>1.077976218755652</v>
+        <v>1.826345090244426</v>
       </c>
       <c r="G32" t="n">
         <v>0.9995753392002769</v>
@@ -1329,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1.198692074302391</v>
+        <v>0.939155976965118</v>
       </c>
       <c r="F33" t="n">
-        <v>1.198183036767496</v>
+        <v>0.9387571542368752</v>
       </c>
       <c r="G33" t="n">
         <v>0.9995753392002769</v>
@@ -1356,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>3.244468780164347</v>
+        <v>5.00242751053046</v>
       </c>
       <c r="F34" t="n">
-        <v>3.243090981457486</v>
+        <v>5.00030317566328</v>
       </c>
       <c r="G34" t="n">
         <v>0.9995753392002769</v>
@@ -1383,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9500971627138444</v>
+        <v>2.53362088539604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9496936936929116</v>
+        <v>2.532544955924652</v>
       </c>
       <c r="G35" t="n">
         <v>0.9995753392002769</v>
@@ -1410,10 +1410,10 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>8.423914414967982</v>
+        <v>13.01604994634896</v>
       </c>
       <c r="F36" t="n">
-        <v>8.420337108735724</v>
+        <v>13.01052254016951</v>
       </c>
       <c r="G36" t="n">
         <v>0.9995753392002769</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0002551017917863883</v>
+        <v>0.001108175366666161</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0002549934600554775</v>
+        <v>0.001107704768028719</v>
       </c>
       <c r="G37" t="n">
         <v>0.9995753392002769</v>
@@ -1464,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>2.551713334393452</v>
+        <v>7.378229566341034</v>
       </c>
       <c r="F38" t="n">
-        <v>2.550629721768204</v>
+        <v>7.37509632147285</v>
       </c>
       <c r="G38" t="n">
         <v>0.9995753392002769</v>
@@ -1491,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1.035872021448701</v>
+        <v>1.009136829236801</v>
       </c>
       <c r="F39" t="n">
-        <v>1.035432127207663</v>
+        <v>1.008708288383868</v>
       </c>
       <c r="G39" t="n">
         <v>0.9995753392002769</v>
@@ -1518,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>8.592426237127327</v>
+        <v>9.863589790618057</v>
       </c>
       <c r="F40" t="n">
-        <v>8.588777370529906</v>
+        <v>9.859401110689433</v>
       </c>
       <c r="G40" t="n">
         <v>0.9995753392002769</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0006104806172769722</v>
+        <v>-0.001095315836779639</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0006102213700898239</v>
+        <v>-0.001094850699080442</v>
       </c>
       <c r="G41" t="n">
         <v>0.9995753392002769</v>
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>3.011398869188916</v>
+        <v>3.98859066999327</v>
       </c>
       <c r="F42" t="n">
-        <v>3.010120046136842</v>
+        <v>3.986896871889582</v>
       </c>
       <c r="G42" t="n">
         <v>0.9995753392002769</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01651968177579133</v>
+        <v>0.0007911942768762772</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01651266651451725</v>
+        <v>0.0007908582876819226</v>
       </c>
       <c r="G43" t="n">
         <v>0.9995753392002769</v>
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1.19689487320576</v>
+        <v>1.021013990768213</v>
       </c>
       <c r="F44" t="n">
-        <v>1.19314981819641</v>
+        <v>1.017819262771342</v>
       </c>
       <c r="G44" t="n">
         <v>0.9968710242702278</v>
@@ -1653,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>3.015288132440137</v>
+        <v>6.012555461527766</v>
       </c>
       <c r="F45" t="n">
-        <v>3.005853369055462</v>
+        <v>5.993742321414736</v>
       </c>
       <c r="G45" t="n">
         <v>0.9968710242702278</v>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02871377783486538</v>
+        <v>0.001595177598724601</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02862393312091001</v>
+        <v>0.001590186326733515</v>
       </c>
       <c r="G46" t="n">
         <v>0.9968710242702278</v>
@@ -1707,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1.148617982335771</v>
+        <v>1.857142884616874</v>
       </c>
       <c r="F47" t="n">
-        <v>1.145023984546263</v>
+        <v>1.851331929604189</v>
       </c>
       <c r="G47" t="n">
         <v>0.9968710242702278</v>
@@ -1734,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0911643538919</v>
+        <v>1.027508793412717</v>
       </c>
       <c r="F48" t="n">
-        <v>1.087750127111378</v>
+        <v>1.024293743336001</v>
       </c>
       <c r="G48" t="n">
         <v>0.9968710242702278</v>
@@ -1761,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.185552121882932</v>
+        <v>0.9936409226520205</v>
       </c>
       <c r="F49" t="n">
-        <v>1.18184255806718</v>
+        <v>0.9905318443209339</v>
       </c>
       <c r="G49" t="n">
         <v>0.9968710242702278</v>
@@ -1788,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.946527876693566</v>
+        <v>1.337063132236501</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9374707320258038</v>
+        <v>1.324269030217129</v>
       </c>
       <c r="G50" t="n">
         <v>0.990431190786054</v>
@@ -1815,10 +1815,10 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>5.914465696662449</v>
+        <v>6.828594848640607</v>
       </c>
       <c r="F51" t="n">
-        <v>5.857871302808659</v>
+        <v>6.763253327334631</v>
       </c>
       <c r="G51" t="n">
         <v>0.990431190786054</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1.194303180572865</v>
+        <v>0.9451919454644113</v>
       </c>
       <c r="F52" t="n">
-        <v>1.182875121294355</v>
+        <v>0.9361475840677039</v>
       </c>
       <c r="G52" t="n">
         <v>0.990431190786054</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01850559444334005</v>
+        <v>-0.0005702573280339622</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01832851794072107</v>
+        <v>-0.0005648006444591504</v>
       </c>
       <c r="G53" t="n">
         <v>0.990431190786054</v>
@@ -1896,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1.14942930322172</v>
+        <v>1.949013178593519</v>
       </c>
       <c r="F54" t="n">
-        <v>1.138430633514273</v>
+        <v>1.93036344333209</v>
       </c>
       <c r="G54" t="n">
         <v>0.990431190786054</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005449204922557267</v>
+        <v>0.002392719908096894</v>
       </c>
       <c r="F55" t="n">
-        <v>0.005397062520285621</v>
+        <v>0.002369824427793905</v>
       </c>
       <c r="G55" t="n">
         <v>0.990431190786054</v>
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>2.410217152519686</v>
+        <v>3.075387504206672</v>
       </c>
       <c r="F56" t="n">
-        <v>2.397408982126661</v>
+        <v>3.059044542271777</v>
       </c>
       <c r="G56" t="n">
         <v>0.9946858853030586</v>
@@ -1977,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>2.30278925351628</v>
+        <v>2.993528354333202</v>
       </c>
       <c r="F57" t="n">
-        <v>2.29055196730021</v>
+        <v>2.977620401309729</v>
       </c>
       <c r="G57" t="n">
         <v>0.9946858853030586</v>
@@ -2004,10 +2004,10 @@
         <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>9.123973895575375</v>
+        <v>7.785446421769478</v>
       </c>
       <c r="F58" t="n">
-        <v>9.075488051802388</v>
+        <v>7.744073666517303</v>
       </c>
       <c r="G58" t="n">
         <v>0.9946858853030586</v>
@@ -2031,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1.276644538319137</v>
+        <v>1.015161597297232</v>
       </c>
       <c r="F59" t="n">
-        <v>1.269860302815286</v>
+        <v>1.009766912133264</v>
       </c>
       <c r="G59" t="n">
         <v>0.9946858853030586</v>
@@ -2058,10 +2058,10 @@
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>16.00710228339038</v>
+        <v>11.88325181495764</v>
       </c>
       <c r="F60" t="n">
-        <v>15.92203870589077</v>
+        <v>11.82010285184032</v>
       </c>
       <c r="G60" t="n">
         <v>0.9946858853030586</v>
@@ -2085,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>9.932135641822418</v>
+        <v>6.823953323639087</v>
       </c>
       <c r="F61" t="n">
-        <v>9.879355133836194</v>
+        <v>6.787690052990696</v>
       </c>
       <c r="G61" t="n">
         <v>0.9946858853030586</v>
@@ -2112,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>6.645115461909066</v>
+        <v>8.78681241850845</v>
       </c>
       <c r="F62" t="n">
-        <v>6.609802556170063</v>
+        <v>8.740118289495989</v>
       </c>
       <c r="G62" t="n">
         <v>0.9946858853030586</v>
@@ -2139,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>7.125871631865019</v>
+        <v>6.097135939012942</v>
       </c>
       <c r="F63" t="n">
-        <v>7.088003932697607</v>
+        <v>6.064735059310184</v>
       </c>
       <c r="G63" t="n">
         <v>0.9946858853030586</v>
@@ -2166,10 +2166,10 @@
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>3.830157276971398</v>
+        <v>3.888520014020953</v>
       </c>
       <c r="F64" t="n">
-        <v>3.809803381894246</v>
+        <v>3.867855972665093</v>
       </c>
       <c r="G64" t="n">
         <v>0.9946858853030586</v>
@@ -2193,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1.076973412935742</v>
+        <v>1.977996188752268</v>
       </c>
       <c r="F65" t="n">
-        <v>1.071250252693845</v>
+        <v>1.967484890135126</v>
       </c>
       <c r="G65" t="n">
         <v>0.9946858853030586</v>
@@ -2220,10 +2220,10 @@
         <v>29</v>
       </c>
       <c r="E66" t="n">
-        <v>44.44234308250849</v>
+        <v>27.84080531265463</v>
       </c>
       <c r="F66" t="n">
-        <v>44.20617137396721</v>
+        <v>27.69285607996797</v>
       </c>
       <c r="G66" t="n">
         <v>0.9946858853030586</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2.613415530634811</v>
+        <v>1.093625754849561</v>
       </c>
       <c r="F67" t="n">
-        <v>2.59952754075425</v>
+        <v>1.087814102152761</v>
       </c>
       <c r="G67" t="n">
         <v>0.9946858853030586</v>
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>23.60009704235393</v>
+        <v>10.91361522963872</v>
       </c>
       <c r="F68" t="n">
-        <v>23.47468341981191</v>
+        <v>10.85561902655014</v>
       </c>
       <c r="G68" t="n">
         <v>0.9946858853030586</v>
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>2.70764466438309</v>
+        <v>3.781866456423629</v>
       </c>
       <c r="F69" t="n">
-        <v>2.693255930077997</v>
+        <v>3.761769184305679</v>
       </c>
       <c r="G69" t="n">
         <v>0.9946858853030586</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01257105828667406</v>
+        <v>0.004068303919509826</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01250425424107674</v>
+        <v>0.004046684485859534</v>
       </c>
       <c r="G70" t="n">
         <v>0.9946858853030586</v>
@@ -2355,10 +2355,10 @@
         <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>24.44848263577881</v>
+        <v>11.38561341265536</v>
       </c>
       <c r="F71" t="n">
-        <v>25.10525109303877</v>
+        <v>11.69146927567096</v>
       </c>
       <c r="G71" t="n">
         <v>1.026863362730692</v>
@@ -2382,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10.72280040472791</v>
+        <v>9.776884680390692</v>
       </c>
       <c r="F72" t="n">
-        <v>11.01085088148893</v>
+        <v>10.03952467993618</v>
       </c>
       <c r="G72" t="n">
         <v>1.026863362730692</v>
@@ -2409,10 +2409,10 @@
         <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>42.23261117170662</v>
+        <v>18.25229620389466</v>
       </c>
       <c r="F73" t="n">
-        <v>42.37899671057058</v>
+        <v>18.3155618211791</v>
       </c>
       <c r="G73" t="n">
         <v>1.003466173054486</v>
@@ -2436,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>3.593330176290717</v>
+        <v>3.997081439812598</v>
       </c>
       <c r="F74" t="n">
-        <v>3.605785280523648</v>
+        <v>4.010936015795863</v>
       </c>
       <c r="G74" t="n">
         <v>1.003466173054486</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1.6601286861738</v>
+        <v>-0.07364840847135291</v>
       </c>
       <c r="F75" t="n">
-        <v>1.665882979492795</v>
+        <v>-0.07390368660030211</v>
       </c>
       <c r="G75" t="n">
         <v>1.003466173054486</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08988331990447754</v>
+        <v>0.00690973124977756</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0901948710459782</v>
+        <v>0.006933681574049281</v>
       </c>
       <c r="G76" t="n">
         <v>1.003466173054486</v>
@@ -2517,10 +2517,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>2.185624493492331</v>
+        <v>3.118453016423298</v>
       </c>
       <c r="F77" t="n">
-        <v>2.1932002462189</v>
+        <v>3.129262114240506</v>
       </c>
       <c r="G77" t="n">
         <v>1.003466173054486</v>
@@ -2544,10 +2544,10 @@
         <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>13.6391075094426</v>
+        <v>9.21545480937829</v>
       </c>
       <c r="F78" t="n">
-        <v>13.68638301637907</v>
+        <v>9.247397170523392</v>
       </c>
       <c r="G78" t="n">
         <v>1.003466173054486</v>
@@ -2571,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>2.190461079013776</v>
+        <v>3.078427646569109</v>
       </c>
       <c r="F79" t="n">
-        <v>2.198053596182755</v>
+        <v>3.089098009527832</v>
       </c>
       <c r="G79" t="n">
         <v>1.003466173054486</v>
@@ -2598,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>4.361927521001917</v>
+        <v>3.053875986452737</v>
       </c>
       <c r="F80" t="n">
-        <v>4.377046716640836</v>
+        <v>3.064461249108723</v>
       </c>
       <c r="G80" t="n">
         <v>1.003466173054486</v>
@@ -2625,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>1.226222351874313</v>
+        <v>1.958156862873421</v>
       </c>
       <c r="F81" t="n">
-        <v>1.230472650749189</v>
+        <v>1.96494417342797</v>
       </c>
       <c r="G81" t="n">
         <v>1.003466173054486</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0170260794568339</v>
+        <v>-0.001004552326616934</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01708509479467072</v>
+        <v>-0.001008034278823274</v>
       </c>
       <c r="G82" t="n">
         <v>1.003466173054486</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.01166889038565511</v>
+        <v>-0.01028876606465534</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01170933677908563</v>
+        <v>-0.01032442870835257</v>
       </c>
       <c r="G83" t="n">
         <v>1.003466173054486</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.02962526067781016</v>
+        <v>0.00131205856252254</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.02972794695810372</v>
+        <v>0.001316606384557863</v>
       </c>
       <c r="G84" t="n">
         <v>1.003466173054486</v>
@@ -2733,10 +2733,10 @@
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>1.349339453296191</v>
+        <v>1.965200565790457</v>
       </c>
       <c r="F85" t="n">
-        <v>1.354016497350562</v>
+        <v>1.972012291038261</v>
       </c>
       <c r="G85" t="n">
         <v>1.003466173054486</v>
@@ -2760,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>9.654314124810529</v>
+        <v>6.883365939937331</v>
       </c>
       <c r="F86" t="n">
-        <v>9.687777648289492</v>
+        <v>6.907224877482511</v>
       </c>
       <c r="G86" t="n">
         <v>1.003466173054486</v>
@@ -2787,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>2.278459340660295</v>
+        <v>1.987176300842512</v>
       </c>
       <c r="F87" t="n">
-        <v>2.286356875032635</v>
+        <v>1.994064197791006</v>
       </c>
       <c r="G87" t="n">
         <v>1.003466173054486</v>
@@ -2814,10 +2814,10 @@
         <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>3.190304488903276</v>
+        <v>15.30588738567431</v>
       </c>
       <c r="F88" t="n">
-        <v>3.201362636358319</v>
+        <v>15.35894024010553</v>
       </c>
       <c r="G88" t="n">
         <v>1.003466173054486</v>
@@ -2841,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>7.399181288691794</v>
+        <v>10.74037671099454</v>
       </c>
       <c r="F89" t="n">
-        <v>7.424828131499917</v>
+        <v>10.77760471534522</v>
       </c>
       <c r="G89" t="n">
         <v>1.003466173054486</v>
@@ -2868,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>3.331023121110108</v>
+        <v>5.116198861582133</v>
       </c>
       <c r="F90" t="n">
-        <v>3.342569023696371</v>
+        <v>5.133932492217543</v>
       </c>
       <c r="G90" t="n">
         <v>1.003466173054486</v>
@@ -2895,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>1.892740351460191</v>
+        <v>4.024688985828138</v>
       </c>
       <c r="F91" t="n">
-        <v>1.899300917065561</v>
+        <v>4.038639254343503</v>
       </c>
       <c r="G91" t="n">
         <v>1.003466173054486</v>
@@ -2922,10 +2922,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>2.132118422490021</v>
+        <v>1.998722931321011</v>
       </c>
       <c r="F92" t="n">
-        <v>2.139508713915029</v>
+        <v>2.00565085088894</v>
       </c>
       <c r="G92" t="n">
         <v>1.003466173054486</v>
@@ -2949,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1.520948306663911</v>
+        <v>1.007787822183047</v>
       </c>
       <c r="F93" t="n">
-        <v>1.526220176701736</v>
+        <v>1.011280989176937</v>
       </c>
       <c r="G93" t="n">
         <v>1.003466173054486</v>
@@ -2976,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>1.609063253021307</v>
+        <v>2.908923734092149</v>
       </c>
       <c r="F94" t="n">
-        <v>1.614640544711894</v>
+        <v>2.919006567156816</v>
       </c>
       <c r="G94" t="n">
         <v>1.003466173054486</v>
@@ -3003,10 +3003,10 @@
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>7.000607788791538</v>
+        <v>6.108646112871789</v>
       </c>
       <c r="F95" t="n">
-        <v>7.024873106874074</v>
+        <v>6.129819737427618</v>
       </c>
       <c r="G95" t="n">
         <v>1.003466173054486</v>
@@ -3030,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1.009329218882155</v>
+        <v>1.011476208102875</v>
       </c>
       <c r="F96" t="n">
-        <v>1.01282772862375</v>
+        <v>1.014982159680655</v>
       </c>
       <c r="G96" t="n">
         <v>1.003466173054486</v>
@@ -3057,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1.036005455484871</v>
+        <v>0.94353400462895</v>
       </c>
       <c r="F97" t="n">
-        <v>1.063836045826537</v>
+        <v>0.9688805008440403</v>
       </c>
       <c r="G97" t="n">
         <v>1.026863362730692</v>
@@ -3084,10 +3084,10 @@
         <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>10.51668538673069</v>
+        <v>14.54867855369321</v>
       </c>
       <c r="F98" t="n">
-        <v>10.79919892099901</v>
+        <v>14.93950498293331</v>
       </c>
       <c r="G98" t="n">
         <v>1.026863362730692</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0153509884388118</v>
+        <v>-0.01452839518350061</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01576336760951827</v>
+        <v>-0.01491867673320985</v>
       </c>
       <c r="G99" t="n">
         <v>1.026863362730692</v>
@@ -3138,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9578150295793472</v>
+        <v>1.984485083696614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9835451621478462</v>
+        <v>2.037795026333605</v>
       </c>
       <c r="G100" t="n">
         <v>1.026863362730692</v>
@@ -3165,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.093937738643754</v>
+        <v>1.051364561448549</v>
       </c>
       <c r="F101" t="n">
-        <v>1.083023515015456</v>
+        <v>1.04087509067415</v>
       </c>
       <c r="G101" t="n">
         <v>0.9900229937749214</v>
@@ -3192,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>1.181125990425991</v>
+        <v>1.978462607219904</v>
       </c>
       <c r="F102" t="n">
-        <v>1.169341889066908</v>
+        <v>1.958723473471586</v>
       </c>
       <c r="G102" t="n">
         <v>0.9900229937749214</v>
@@ -3219,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>0.980061655184161</v>
+        <v>1.914631048586466</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9702835739494278</v>
+        <v>1.895528762695991</v>
       </c>
       <c r="G103" t="n">
         <v>0.9900229937749214</v>
@@ -3246,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>2.132604024950492</v>
+        <v>3.819028242122058</v>
       </c>
       <c r="F104" t="n">
-        <v>2.111327021317933</v>
+        <v>3.780925773576656</v>
       </c>
       <c r="G104" t="n">
         <v>0.9900229937749214</v>
@@ -3273,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>2.403441101057651</v>
+        <v>2.020465709373202</v>
       </c>
       <c r="F105" t="n">
-        <v>2.379461954230789</v>
+        <v>2.000307510413228</v>
       </c>
       <c r="G105" t="n">
         <v>0.9900229937749214</v>
@@ -3300,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02984192007355239</v>
+        <v>-0.00225120337228514</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02954418705121027</v>
+        <v>-0.002228743102225933</v>
       </c>
       <c r="G106" t="n">
         <v>0.9900229937749214</v>
@@ -3327,10 +3327,10 @@
         <v>17</v>
       </c>
       <c r="E107" t="n">
-        <v>30.23159669149239</v>
+        <v>15.28629926334418</v>
       </c>
       <c r="F107" t="n">
-        <v>31.69399191158836</v>
+        <v>16.02574452664919</v>
       </c>
       <c r="G107" t="n">
         <v>1.048373072551193</v>
@@ -3354,10 +3354,10 @@
         <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>32.04165396501145</v>
+        <v>15.26815114764915</v>
       </c>
       <c r="F108" t="n">
-        <v>33.59160721692118</v>
+        <v>16.00671853083697</v>
       </c>
       <c r="G108" t="n">
         <v>1.048373072551193</v>
@@ -3381,10 +3381,10 @@
         <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>18.40251165524298</v>
+        <v>9.119775305382761</v>
       </c>
       <c r="F109" t="n">
-        <v>19.29269768666622</v>
+        <v>9.560926857880622</v>
       </c>
       <c r="G109" t="n">
         <v>1.048373072551193</v>
@@ -3408,10 +3408,10 @@
         <v>17</v>
       </c>
       <c r="E110" t="n">
-        <v>32.31871168692284</v>
+        <v>15.28430484632919</v>
       </c>
       <c r="F110" t="n">
-        <v>33.88206707211545</v>
+        <v>16.02365363355523</v>
       </c>
       <c r="G110" t="n">
         <v>1.048373072551193</v>
@@ -3435,10 +3435,10 @@
         <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>12.1873796471775</v>
+        <v>8.214416767776179</v>
       </c>
       <c r="F111" t="n">
-        <v>12.77692064705935</v>
+        <v>8.611773346049555</v>
       </c>
       <c r="G111" t="n">
         <v>1.048373072551193</v>
@@ -3462,10 +3462,10 @@
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>2.192665403169525</v>
+        <v>1.965708553750034</v>
       </c>
       <c r="F112" t="n">
-        <v>2.171250687701865</v>
+        <v>1.946510417404172</v>
       </c>
       <c r="G112" t="n">
         <v>0.9902334777405137</v>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.191797464269776</v>
+        <v>1.017097768974031</v>
       </c>
       <c r="F113" t="n">
-        <v>1.180157747806185</v>
+        <v>1.007164260973271</v>
       </c>
       <c r="G113" t="n">
         <v>0.9902334777405137</v>
@@ -3516,10 +3516,10 @@
         <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>2.256548745470764</v>
+        <v>3.941501885576148</v>
       </c>
       <c r="F114" t="n">
-        <v>2.234510111918507</v>
+        <v>3.903007119674862</v>
       </c>
       <c r="G114" t="n">
         <v>0.9902334777405137</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.141606413776886</v>
+        <v>1.028001753630653</v>
       </c>
       <c r="F115" t="n">
-        <v>1.130456889325162</v>
+        <v>1.017961751621028</v>
       </c>
       <c r="G115" t="n">
         <v>0.9902334777405137</v>
@@ -3570,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.007534129358809785</v>
+        <v>0.002543946793934722</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00746054711672112</v>
+        <v>0.00251910128094481</v>
       </c>
       <c r="G116" t="n">
         <v>0.9902334777405137</v>
@@ -3597,10 +3597,10 @@
         <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>2.114178151176295</v>
+        <v>2.854826925145653</v>
       </c>
       <c r="F117" t="n">
-        <v>2.093529983202312</v>
+        <v>2.826945194434237</v>
       </c>
       <c r="G117" t="n">
         <v>0.9902334777405137</v>
@@ -3624,10 +3624,10 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>2.243062044289014</v>
+        <v>6.913684384762348</v>
       </c>
       <c r="F118" t="n">
-        <v>2.221155128904056</v>
+        <v>6.846161732323504</v>
       </c>
       <c r="G118" t="n">
         <v>0.9902334777405137</v>
@@ -3651,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1.232290017035926</v>
+        <v>1.253458328574484</v>
       </c>
       <c r="F119" t="n">
-        <v>1.220254829154403</v>
+        <v>1.241216399907123</v>
       </c>
       <c r="G119" t="n">
         <v>0.9902334777405137</v>
@@ -3678,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>1.228960007082568</v>
+        <v>0.9863759097415941</v>
       </c>
       <c r="F120" t="n">
-        <v>1.216957341817378</v>
+        <v>0.9767424474628817</v>
       </c>
       <c r="G120" t="n">
         <v>0.9902334777405137</v>
@@ -3705,10 +3705,10 @@
         <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>3.202750655451621</v>
+        <v>5.075077478136944</v>
       </c>
       <c r="F121" t="n">
-        <v>3.171470919883569</v>
+        <v>5.025511620978103</v>
       </c>
       <c r="G121" t="n">
         <v>0.9902334777405137</v>
@@ -3732,10 +3732,10 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1.176377615450873</v>
+        <v>1.062728934738178</v>
       </c>
       <c r="F122" t="n">
-        <v>1.164888497284011</v>
+        <v>1.052349768941257</v>
       </c>
       <c r="G122" t="n">
         <v>0.9902334777405137</v>
@@ -3759,10 +3759,10 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1.000018018391681</v>
+        <v>1.00918424018102</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9902513201551709</v>
+        <v>0.9993280198353703</v>
       </c>
       <c r="G123" t="n">
         <v>0.9902334777405137</v>
@@ -3786,10 +3786,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2.309387710543148</v>
+        <v>3.047342590803255</v>
       </c>
       <c r="F124" t="n">
-        <v>2.286833024062344</v>
+        <v>3.017580651557895</v>
       </c>
       <c r="G124" t="n">
         <v>0.9902334777405137</v>
@@ -3813,10 +3813,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>1.182418937703156</v>
+        <v>1.95457995917771</v>
       </c>
       <c r="F125" t="n">
-        <v>1.17087081682804</v>
+        <v>1.935490510498455</v>
       </c>
       <c r="G125" t="n">
         <v>0.9902334777405137</v>
@@ -3840,10 +3840,10 @@
         <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>1.167203693278615</v>
+        <v>2.863363197505047</v>
       </c>
       <c r="F126" t="n">
-        <v>1.155804172426855</v>
+        <v>2.83539809709962</v>
       </c>
       <c r="G126" t="n">
         <v>0.9902334777405137</v>
@@ -3867,10 +3867,10 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>9.047924355739054</v>
+        <v>7.093358938016288</v>
       </c>
       <c r="F127" t="n">
-        <v>8.959557601116581</v>
+        <v>7.024081490053625</v>
       </c>
       <c r="G127" t="n">
         <v>0.9902334777405137</v>
@@ -3894,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.09828734184328361</v>
+        <v>-0.02028450844389632</v>
       </c>
       <c r="F128" t="n">
-        <v>0.09732741633134545</v>
+        <v>-0.02008639934065628</v>
       </c>
       <c r="G128" t="n">
         <v>0.9902334777405137</v>
@@ -3921,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>2.244577503184577</v>
+        <v>2.927986828640134</v>
       </c>
       <c r="F129" t="n">
-        <v>2.222655787036583</v>
+        <v>2.899390580102738</v>
       </c>
       <c r="G129" t="n">
         <v>0.9902334777405137</v>
@@ -3948,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="E130" t="n">
-        <v>2.481823044332162</v>
+        <v>5.7834136782669</v>
       </c>
       <c r="F130" t="n">
-        <v>2.457584264325586</v>
+        <v>5.726929839842289</v>
       </c>
       <c r="G130" t="n">
         <v>0.9902334777405137</v>
@@ -3975,10 +3975,10 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>2.706068187369035</v>
+        <v>5.090510350504585</v>
       </c>
       <c r="F131" t="n">
-        <v>2.679639312181409</v>
+        <v>5.040793767854238</v>
       </c>
       <c r="G131" t="n">
         <v>0.9902334777405137</v>
@@ -4002,10 +4002,10 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1.517269302356532</v>
+        <v>1.004155791106882</v>
       </c>
       <c r="F132" t="n">
-        <v>1.509206359257662</v>
+        <v>0.9988195920593421</v>
       </c>
       <c r="G132" t="n">
         <v>0.9946858853030586</v>
@@ -4029,10 +4029,10 @@
         <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>5.097689596916869</v>
+        <v>7.839546019035078</v>
       </c>
       <c r="F133" t="n">
-        <v>5.047902897996629</v>
+        <v>7.762980918335904</v>
       </c>
       <c r="G133" t="n">
         <v>0.9902334777405137</v>
@@ -4056,10 +4056,10 @@
         <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>1.242835143967663</v>
+        <v>1.942229385407237</v>
       </c>
       <c r="F134" t="n">
-        <v>1.230696966869231</v>
+        <v>1.92326055888163</v>
       </c>
       <c r="G134" t="n">
         <v>0.9902334777405137</v>
@@ -4083,10 +4083,10 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>2.329691966733175</v>
+        <v>7.039008516904965</v>
       </c>
       <c r="F135" t="n">
-        <v>2.306938978282329</v>
+        <v>6.970261883539899</v>
       </c>
       <c r="G135" t="n">
         <v>0.9902334777405137</v>
@@ -4110,10 +4110,10 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>2.599786601418093</v>
+        <v>2.114547743472751</v>
       </c>
       <c r="F136" t="n">
-        <v>2.574395727705429</v>
+        <v>2.093895965867379</v>
       </c>
       <c r="G136" t="n">
         <v>0.9902334777405137</v>
@@ -4137,10 +4137,10 @@
         <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>2.79727907380403</v>
+        <v>10.50258498677005</v>
       </c>
       <c r="F137" t="n">
-        <v>2.769959385463728</v>
+        <v>10.40001125671462</v>
       </c>
       <c r="G137" t="n">
         <v>0.9902334777405137</v>
@@ -4164,10 +4164,10 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>3.218931578155622</v>
+        <v>5.062818627122663</v>
       </c>
       <c r="F138" t="n">
-        <v>3.187493811245803</v>
+        <v>5.013372496305128</v>
       </c>
       <c r="G138" t="n">
         <v>0.9902334777405137</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006588436648740028</v>
+        <v>0.002323380900372295</v>
       </c>
       <c r="F139" t="n">
-        <v>0.006585638797963849</v>
+        <v>0.002322394251581081</v>
       </c>
       <c r="G139" t="n">
         <v>0.9995753392002769</v>
@@ -4218,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>2.303464749521978</v>
+        <v>3.046508149222931</v>
       </c>
       <c r="F140" t="n">
-        <v>2.302486558339313</v>
+        <v>3.045214416635918</v>
       </c>
       <c r="G140" t="n">
         <v>0.9995753392002769</v>
@@ -4245,10 +4245,10 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>1.181780284078816</v>
+        <v>1.998695785001548</v>
       </c>
       <c r="F141" t="n">
-        <v>1.181278428318282</v>
+        <v>1.997847017251086</v>
       </c>
       <c r="G141" t="n">
         <v>0.9995753392002769</v>
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.006146445563116846</v>
+        <v>0.001187077937915</v>
       </c>
       <c r="F142" t="n">
-        <v>0.006143835408628558</v>
+        <v>0.001186573832448551</v>
       </c>
       <c r="G142" t="n">
         <v>0.9995753392002769</v>
@@ -4299,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1.203715939127273</v>
+        <v>1.185696835981799</v>
       </c>
       <c r="F143" t="n">
-        <v>1.203204768153924</v>
+        <v>1.185193317015203</v>
       </c>
       <c r="G143" t="n">
         <v>0.9995753392002769</v>
@@ -4326,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>2.289635786592681</v>
+        <v>3.057500967016084</v>
       </c>
       <c r="F144" t="n">
-        <v>2.288663468028471</v>
+        <v>3.056202566210276</v>
       </c>
       <c r="G144" t="n">
         <v>0.9995753392002769</v>
@@ -4353,10 +4353,10 @@
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>1.030132731305144</v>
+        <v>1.939783567086218</v>
       </c>
       <c r="F145" t="n">
-        <v>1.029695274315647</v>
+        <v>1.93895981704533</v>
       </c>
       <c r="G145" t="n">
         <v>0.9995753392002769</v>
@@ -4380,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.02029443959618341</v>
+        <v>-0.04506352202908288</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.02028582134323456</v>
+        <v>-0.04504438531777969</v>
       </c>
       <c r="G146" t="n">
         <v>0.9995753392002769</v>
@@ -4407,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01285614917500351</v>
+        <v>0.004186594384866088</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01273313113632187</v>
+        <v>0.004146533661941126</v>
       </c>
       <c r="G147" t="n">
         <v>0.990431190786054</v>
@@ -4434,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8921910055151698</v>
+        <v>1.004739702899626</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8836538000009966</v>
+        <v>0.9951255403729035</v>
       </c>
       <c r="G148" t="n">
         <v>0.990431190786054</v>
@@ -4461,10 +4461,10 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>1.078879707751257</v>
+        <v>1.047283018717631</v>
       </c>
       <c r="F149" t="n">
-        <v>1.085723213217478</v>
+        <v>1.053926101363252</v>
       </c>
       <c r="G149" t="n">
         <v>1.006343158942608</v>
@@ -4488,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.118048140083301</v>
+        <v>2.783697332537393</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1237584913280839</v>
+        <v>2.918353325564787</v>
       </c>
       <c r="G150" t="n">
         <v>1.048373072551193</v>
@@ -4515,10 +4515,10 @@
         <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>2.263693431783481</v>
+        <v>3.870440006922559</v>
       </c>
       <c r="F151" t="n">
-        <v>2.278052399018622</v>
+        <v>3.894990823064298</v>
       </c>
       <c r="G151" t="n">
         <v>1.006343158942608</v>
@@ -4542,10 +4542,10 @@
         <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9854481877513547</v>
+        <v>1.967653872489041</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9916990422359667</v>
+        <v>1.980135013746278</v>
       </c>
       <c r="G152" t="n">
         <v>1.006343158942608</v>
@@ -4569,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>2.269052837285166</v>
+        <v>3.069733058338493</v>
       </c>
       <c r="F153" t="n">
-        <v>2.283445800081242</v>
+        <v>3.089204863038912</v>
       </c>
       <c r="G153" t="n">
         <v>1.006343158942608</v>
@@ -4596,10 +4596,10 @@
         <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>3.095742546570584</v>
+        <v>2.02098189450316</v>
       </c>
       <c r="F154" t="n">
-        <v>3.115379333588875</v>
+        <v>2.033801303880127</v>
       </c>
       <c r="G154" t="n">
         <v>1.006343158942608</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>1.069344975512851</v>
+        <v>2.03579925393698</v>
       </c>
       <c r="F155" t="n">
-        <v>1.064926714544612</v>
+        <v>2.027387850144181</v>
       </c>
       <c r="G155" t="n">
         <v>0.9958682548013845</v>
@@ -4650,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.004950840043600084</v>
+        <v>0.002013800483404689</v>
       </c>
       <c r="F156" t="n">
-        <v>0.004948737615907868</v>
+        <v>0.002012945301280924</v>
       </c>
       <c r="G156" t="n">
         <v>0.9995753392002769</v>
@@ -4677,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.01926553202971743</v>
+        <v>0.6947116035396803</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01920525064757529</v>
+        <v>0.6925378677930135</v>
       </c>
       <c r="G157" t="n">
         <v>0.9968710242702278</v>
@@ -4704,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1.511180111674431</v>
+        <v>1.025112150585528</v>
       </c>
       <c r="F158" t="n">
-        <v>1.503149527233257</v>
+        <v>1.019664587040088</v>
       </c>
       <c r="G158" t="n">
         <v>0.9946858853030586</v>
@@ -4731,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.05718049410987484</v>
+        <v>0.002295859050518285</v>
       </c>
       <c r="F159" t="n">
-        <v>0.05687663040574719</v>
+        <v>0.00228365859219582</v>
       </c>
       <c r="G159" t="n">
         <v>0.9946858853030586</v>
@@ -4758,10 +4758,10 @@
         <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9855660002588716</v>
+        <v>1.967687270982841</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9814938926693834</v>
+        <v>1.95955728854858</v>
       </c>
       <c r="G160" t="n">
         <v>0.9958682548013845</v>
@@ -4785,10 +4785,10 @@
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>1.509467648129207</v>
+        <v>3.761636906899159</v>
       </c>
       <c r="F161" t="n">
-        <v>1.503230912421583</v>
+        <v>3.746094781670143</v>
       </c>
       <c r="G161" t="n">
         <v>0.9958682548013845</v>
@@ -4812,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>2.525696151571804</v>
+        <v>3.901803885427522</v>
       </c>
       <c r="F162" t="n">
-        <v>2.524623587424221</v>
+        <v>3.900146942269174</v>
       </c>
       <c r="G162" t="n">
         <v>0.9995753392002769</v>
@@ -4839,10 +4839,10 @@
         <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>4.09197323183274</v>
+        <v>5.204188360741941</v>
       </c>
       <c r="F163" t="n">
-        <v>4.090235531207665</v>
+        <v>5.201978345950758</v>
       </c>
       <c r="G163" t="n">
         <v>0.9995753392002769</v>
@@ -4866,10 +4866,10 @@
         <v>11</v>
       </c>
       <c r="E164" t="n">
-        <v>16.37148955898495</v>
+        <v>10.68360546436982</v>
       </c>
       <c r="F164" t="n">
-        <v>16.32026356549466</v>
+        <v>10.65017672216534</v>
       </c>
       <c r="G164" t="n">
         <v>0.9968710242702278</v>
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.004301674047241664</v>
+        <v>0.003717930587484158</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.004288214213550454</v>
+        <v>0.003706297272910942</v>
       </c>
       <c r="G165" t="n">
         <v>0.9968710242702278</v>
@@ -4920,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.006256485129535727</v>
+        <v>-0.0005417535731268865</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.00619661801698131</v>
+        <v>-0.0005365696365446618</v>
       </c>
       <c r="G166" t="n">
         <v>0.990431190786054</v>
@@ -4947,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>1.055650342263359</v>
+        <v>0.9993643303378158</v>
       </c>
       <c r="F167" t="n">
-        <v>1.050040495264705</v>
+        <v>0.9940535936623686</v>
       </c>
       <c r="G167" t="n">
         <v>0.9946858853030586</v>
@@ -4974,10 +4974,10 @@
         <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>3.290940588517609</v>
+        <v>3.918008071856511</v>
       </c>
       <c r="F168" t="n">
-        <v>3.258799544005205</v>
+        <v>3.879742758809878</v>
       </c>
       <c r="G168" t="n">
         <v>0.9902334777405137</v>
@@ -5001,10 +5001,10 @@
         <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9710273066626004</v>
+        <v>1.967509870516554</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9615437468575111</v>
+        <v>1.948294141570395</v>
       </c>
       <c r="G169" t="n">
         <v>0.9902334777405137</v>
@@ -5028,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1.393609473693795</v>
+        <v>0.9976682969759283</v>
       </c>
       <c r="F170" t="n">
-        <v>1.379998755747934</v>
+        <v>0.9879245473459292</v>
       </c>
       <c r="G170" t="n">
         <v>0.9902334777405137</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.02597045644175602</v>
+        <v>-0.01034636324726463</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02571681540082859</v>
+        <v>-0.01024531526030549</v>
       </c>
       <c r="G171" t="n">
         <v>0.9902334777405137</v>
@@ -5082,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0006724959294818009</v>
+        <v>0.00499706263615426</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0006722103468225684</v>
+        <v>0.004994940579538925</v>
       </c>
       <c r="G172" t="n">
         <v>0.9995753392002769</v>
@@ -5109,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>1.185856348863938</v>
+        <v>1.008740141399662</v>
       </c>
       <c r="F173" t="n">
-        <v>1.185352762158473</v>
+        <v>1.008311769004502</v>
       </c>
       <c r="G173" t="n">
         <v>0.9995753392002769</v>
@@ -5136,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.008414737978861414</v>
+        <v>0.001689882656450393</v>
       </c>
       <c r="F174" t="n">
-        <v>0.008411164569501852</v>
+        <v>0.001689165029530067</v>
       </c>
       <c r="G174" t="n">
         <v>0.9995753392002769</v>
@@ -5163,10 +5163,10 @@
         <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>3.863940397789791</v>
+        <v>3.941727230009526</v>
       </c>
       <c r="F175" t="n">
-        <v>3.826967089309282</v>
+        <v>3.904009594172149</v>
       </c>
       <c r="G175" t="n">
         <v>0.990431190786054</v>
@@ -5190,10 +5190,10 @@
         <v>5</v>
       </c>
       <c r="E176" t="n">
-        <v>5.571866901519435</v>
+        <v>5.040471416940488</v>
       </c>
       <c r="F176" t="n">
-        <v>5.548845367201758</v>
+        <v>5.019645473364785</v>
       </c>
       <c r="G176" t="n">
         <v>0.9958682548013845</v>
@@ -5217,10 +5217,10 @@
         <v>25</v>
       </c>
       <c r="E177" t="n">
-        <v>4.208838535810305</v>
+        <v>24.1089363567805</v>
       </c>
       <c r="F177" t="n">
-        <v>4.412432987659315</v>
+        <v>25.27515968429915</v>
       </c>
       <c r="G177" t="n">
         <v>1.048373072551193</v>
@@ -5244,10 +5244,10 @@
         <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>10.35732403836168</v>
+        <v>14.31457615437148</v>
       </c>
       <c r="F178" t="n">
-        <v>10.42302219095711</v>
+        <v>14.40537578611472</v>
       </c>
       <c r="G178" t="n">
         <v>1.006343158942608</v>
@@ -5271,10 +5271,10 @@
         <v>55</v>
       </c>
       <c r="E179" t="n">
-        <v>102.9634471217401</v>
+        <v>53.04382056822526</v>
       </c>
       <c r="F179" t="n">
-        <v>107.9441054194809</v>
+        <v>55.6097131489645</v>
       </c>
       <c r="G179" t="n">
         <v>1.048373072551193</v>
@@ -5298,10 +5298,10 @@
         <v>55</v>
       </c>
       <c r="E180" t="n">
-        <v>6.254988117943049</v>
+        <v>51.67024909730281</v>
       </c>
       <c r="F180" t="n">
-        <v>6.55756111197916</v>
+        <v>54.16969780562488</v>
       </c>
       <c r="G180" t="n">
         <v>1.048373072551193</v>
@@ -5325,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.07642663851497773</v>
+        <v>-0.0003557318298403125</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.07847971502769309</v>
+        <v>-0.0003652879830201663</v>
       </c>
       <c r="G181" t="n">
         <v>1.026863362730692</v>
@@ -5352,10 +5352,10 @@
         <v>21</v>
       </c>
       <c r="E182" t="n">
-        <v>59.28799009838218</v>
+        <v>20.42738582143449</v>
       </c>
       <c r="F182" t="n">
-        <v>60.88066488196873</v>
+        <v>20.9761340963955</v>
       </c>
       <c r="G182" t="n">
         <v>1.026863362730692</v>
@@ -5379,10 +5379,10 @@
         <v>17</v>
       </c>
       <c r="E183" t="n">
-        <v>29.07749563085408</v>
+        <v>17.16339097183809</v>
       </c>
       <c r="F183" t="n">
-        <v>29.85861494328584</v>
+        <v>17.62445736920327</v>
       </c>
       <c r="G183" t="n">
         <v>1.026863362730692</v>
@@ -5406,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>1.605143838518385</v>
+        <v>2.767488945075363</v>
       </c>
       <c r="F184" t="n">
-        <v>1.64826339968744</v>
+        <v>2.841833004460105</v>
       </c>
       <c r="G184" t="n">
         <v>1.026863362730692</v>
@@ -5433,10 +5433,10 @@
         <v>31</v>
       </c>
       <c r="E185" t="n">
-        <v>115.2383516334214</v>
+        <v>30.53621852191932</v>
       </c>
       <c r="F185" t="n">
-        <v>118.3340412738372</v>
+        <v>31.35652403649733</v>
       </c>
       <c r="G185" t="n">
         <v>1.026863362730692</v>
@@ -5460,10 +5460,10 @@
         <v>3</v>
       </c>
       <c r="E186" t="n">
-        <v>2.300130224419701</v>
+        <v>2.812985863566976</v>
       </c>
       <c r="F186" t="n">
-        <v>2.361919456966117</v>
+        <v>2.888552123176285</v>
       </c>
       <c r="G186" t="n">
         <v>1.026863362730692</v>
@@ -5487,10 +5487,10 @@
         <v>10</v>
       </c>
       <c r="E187" t="n">
-        <v>9.796279139736409</v>
+        <v>9.924280070968214</v>
       </c>
       <c r="F187" t="n">
-        <v>10.05944013967826</v>
+        <v>10.19087960635562</v>
       </c>
       <c r="G187" t="n">
         <v>1.026863362730692</v>
@@ -5514,10 +5514,10 @@
         <v>11</v>
       </c>
       <c r="E188" t="n">
-        <v>13.01316911966617</v>
+        <v>11.46194354370299</v>
       </c>
       <c r="F188" t="n">
-        <v>13.3627466020036</v>
+        <v>11.7698498907162</v>
       </c>
       <c r="G188" t="n">
         <v>1.026863362730692</v>
